--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1916932.51361907</v>
+        <v>1979213.770491461</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484453</v>
+        <v>492028.934248444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5902116.65054267</v>
+        <v>5905181.337568143</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>37.70374988129591</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>313.3749148441409</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>156.4273818441144</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.18855515479809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.7046441476144</v>
+        <v>95.40706964937365</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.16839904902798</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,10 +1114,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>236.8051715684548</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>23.99748507513087</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>155.5776225602614</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>229.7552611298635</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015912</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>418.4685657939533</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>215.6111223864554</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1774,7 +1774,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>31.28831241118219</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>179.0861311466709</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>219.4013449272952</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225794</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>225.021777646659</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>31.24391673888186</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>161.6379250432812</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2524,16 +2524,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>54.66258501924893</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>27.18442331492841</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>129.2606839525053</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>67.42894579208244</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>26.7016084775211</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>80.61608517870668</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170493</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.24876144511936</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>209.9324537163696</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.56754178380871</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>149.0061926078298</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3743,7 +3743,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773014</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3755,10 +3755,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>196.6228498913987</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>136.6047512078524</v>
       </c>
     </row>
     <row r="42">
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170513</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>214.3693806674597</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3989,7 +3989,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>129.7853418074776</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,13 +4037,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>351.0749436432785</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633449</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,13 +4189,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>172.6623007436918</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>67.65667327773738</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.1887779922017</v>
+        <v>454.7575805228711</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>420.6555117466984</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>388.786130961547</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>359.0517901602462</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307427</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021427</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021427</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021427</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021427</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021427</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>437.7121214637586</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.97515238141</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299062</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257657</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194551</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.171933067589</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1980.171933067589</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1617.554983001416</v>
       </c>
       <c r="W2" t="n">
-        <v>1399.876531557741</v>
+        <v>1212.699528412449</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.774472177456</v>
+        <v>1197.597469032164</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.4883484771095</v>
+        <v>881.0571510077789</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081493</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547026</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816563</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978179</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.4134728640018</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021427</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>71.74149384067186</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>396.2998188068842</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>961.5628497245358</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.0433221421854</v>
+        <v>774.545729635777</v>
       </c>
       <c r="C4" t="n">
-        <v>288.4816106254103</v>
+        <v>774.545729635777</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>774.545729635777</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>274.2399442151644</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>134.3377699055389</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021427</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021427</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>320.4362752513499</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>738.6461570193109</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1640.388827357868</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2060.05807658365</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716086</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2103.231844014082</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1857.352397592537</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1578.919396845642</v>
       </c>
       <c r="V4" t="n">
-        <v>972.5535525019498</v>
+        <v>1291.963888716073</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5271480882413</v>
+        <v>1019.937484302365</v>
       </c>
       <c r="X4" t="n">
-        <v>700.5271480882413</v>
+        <v>774.545729635777</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.8619408611726</v>
+        <v>774.545729635777</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.0361114536327</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>858.7506050139928</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>686.1888934972177</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>520.3109006987404</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1131.794921203953</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1131.794921203953</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>904.3752505180614</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.9883481097479</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1208.676101675288</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1193.574042295002</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>785.2879185946557</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>807.508379929692</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>634.9466684129169</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>469.0686756144395</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>299.3106718651768</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>66.6195087848011</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>341.3779633559367</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>341.3779633559367</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1537.942061378414</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1537.942061378414</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.986553248845</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.986553248845</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1226.746669334571</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>999.3269986486791</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351989</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847288</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
         <v>787.6807519874951</v>
@@ -5033,58 +5033,58 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111516</v>
+        <v>1171.795942933975</v>
       </c>
       <c r="M11" t="n">
-        <v>1253.783811891666</v>
+        <v>2328.843778144525</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.514795328113</v>
+        <v>2328.843778144525</v>
       </c>
       <c r="O11" t="n">
-        <v>3359.694461898419</v>
+        <v>3309.023444714832</v>
       </c>
       <c r="P11" t="n">
-        <v>4188.004336731816</v>
+        <v>4137.333319548228</v>
       </c>
       <c r="Q11" t="n">
-        <v>4734.50312269041</v>
+        <v>4683.832105506823</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4616.731606928799</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4357.509304245816</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>3994.892354179642</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3590.036899590676</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2511.879170851552</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2073.736698034976</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1637.82691320942</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M14" t="n">
-        <v>2523.388791302762</v>
+        <v>1186.92545850396</v>
       </c>
       <c r="N14" t="n">
-        <v>3649.119774739209</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.334894469305</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P14" t="n">
-        <v>4667.644769302701</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245813</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179639</v>
+        <v>4170.462783046462</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457496</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3346.464865036807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2938.17874133646</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292996</v>
+        <v>1030.691439225644</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>858.1297277088688</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>692.2517349103916</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>522.4937311611288</v>
       </c>
       <c r="F16" t="n">
         <v>490.8893751902377</v>
@@ -5428,22 +5428,22 @@
         <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881912</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.379689494033</v>
+        <v>2254.303395840388</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.424181364463</v>
+        <v>1967.347887710819</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1695.32148329711</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697875</v>
+        <v>1449.929728630523</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011983</v>
+        <v>1222.510057944631</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181365</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364789</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539233</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697528</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067362</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781549</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137114</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2462103062054</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>122.2462103062054</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1279.294045516756</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953203</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.20469552351</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356905</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.0133563155</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068557</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252394</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125432</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442449</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376276</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787309</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.61114936662</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666273</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.58334842137114</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58334842137114</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>98.58334842137114</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>98.58334842137114</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>98.58334842137114</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>98.58334842137114</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.1882266945667</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983017</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815273</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D19" t="n">
-        <v>610.63968118305</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337873</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955434</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137114</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137114</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571964</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859941</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113046</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569768</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903181</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.898004217289</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5753,7 +5753,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
         <v>306.1208027766299</v>
@@ -5829,22 +5829,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883922</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354736</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066092</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745702</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050032</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2281.246080724685</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -6063,22 +6063,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
         <v>287.8657185439749</v>
@@ -6172,19 +6172,19 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V25" t="n">
         <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X25" t="n">
         <v>1600.55729028754</v>
@@ -6242,10 +6242,10 @@
         <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4986.778077699538</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1036.216302815309</v>
+        <v>1057.634124109937</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>885.0724125931621</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674087</v>
+        <v>719.1944197946848</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>549.436416045422</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>372.7293620071781</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300484</v>
+        <v>1994.290572595112</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.846346886775</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.454592220188</v>
+        <v>1476.872413514816</v>
       </c>
       <c r="Y28" t="n">
-        <v>1228.034921534296</v>
+        <v>1249.452742828924</v>
       </c>
     </row>
     <row r="29">
@@ -6540,22 +6540,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C31" t="n">
         <v>1008.757289365886</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2650.81040391895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2404.930957497405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6704,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1090.187678435287</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731396</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238769</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856331</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6865,7 +6865,7 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
         <v>1783.551532113124</v>
@@ -6889,19 +6889,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>2026.844126920462</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1754.817722506753</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1509.425967840166</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1282.006297154274</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,46 +6941,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176949</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176949</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430054</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.872751300484</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W37" t="n">
-        <v>1700.846346886776</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.454592220188</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y37" t="n">
-        <v>1228.034921534297</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7166,7 +7166,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,25 +7178,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7205,16 +7205,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.7810588588592</v>
+        <v>1036.216302815304</v>
       </c>
       <c r="C40" t="n">
-        <v>754.2193473420841</v>
+        <v>863.6545912985285</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420841</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928213</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545776</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7351,31 +7351,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878946</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176942</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176942</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2259.828259430048</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.437507344034</v>
+        <v>1972.872751300478</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.411102930326</v>
+        <v>1700.84634688677</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.019348263738</v>
+        <v>1455.454592220182</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.599677577846</v>
+        <v>1228.034921534291</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.53146063899</v>
+        <v>2522.958394689266</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822414</v>
+        <v>2084.815921872689</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996858</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155153</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>700.8370285643609</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>299.4391971876248</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033836</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305236</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305236</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K41" t="n">
-        <v>100.4134685305236</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L41" t="n">
-        <v>213.7522157638304</v>
+        <v>199.0316880464659</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.800050974381</v>
+        <v>1356.079523257017</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410828</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981135</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.02057581453</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773126</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526182</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710019</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583058</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900074</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833901</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244934</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824245</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123898</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305236</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4134685305236</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4134685305236</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K42" t="n">
-        <v>100.4134685305236</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4134685305236</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>100.4134685305236</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>100.4134685305236</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>286.0183468037189</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.9073059481362</v>
+        <v>1035.891962983371</v>
       </c>
       <c r="C43" t="n">
-        <v>637.3455944313612</v>
+        <v>863.3302514665962</v>
       </c>
       <c r="D43" t="n">
-        <v>471.4676016328839</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E43" t="n">
-        <v>301.7095978836211</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F43" t="n">
-        <v>125.0025438453773</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305236</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305236</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305236</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952135</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.83170973132</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309775</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U43" t="n">
-        <v>2033.519262562881</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V43" t="n">
-        <v>1746.563754433311</v>
+        <v>1972.548411468546</v>
       </c>
       <c r="W43" t="n">
-        <v>1474.537350019603</v>
+        <v>1700.522007054838</v>
       </c>
       <c r="X43" t="n">
-        <v>1229.145595353015</v>
+        <v>1455.13025238825</v>
       </c>
       <c r="Y43" t="n">
-        <v>1001.725924667123</v>
+        <v>1227.710581702358</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168566</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351989</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526434</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>944.829865684729</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>516.9624360939367</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G44" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K44" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L44" t="n">
-        <v>1155.608606729853</v>
+        <v>199.0316880464659</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940404</v>
+        <v>1356.079523257017</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112633</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.85743042965</v>
+        <v>4493.924657556614</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363476</v>
+        <v>4131.30770749044</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774509</v>
+        <v>3776.68655229521</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.24256235382</v>
+        <v>3357.544088874521</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L45" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M45" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="N45" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="O45" t="n">
         <v>282.3408549543107</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>1009.916144494519</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="D46" t="n">
         <v>837.3544329777442</v>
@@ -7795,25 +7795,25 @@
         <v>490.8893751902377</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>325.2981002160654</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
         <v>1778.026668523459</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587284</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165739</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U46" t="n">
-        <v>2112.450585778171</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1674.546188565985</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697875</v>
+        <v>1429.154433899398</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1201.734763213506</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>395.9942432157014</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,31 +8052,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320414</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>152.0558298092334</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>226.0938963909734</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>239.5100572483141</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,22 +8608,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.00589917494217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>103.3290013791393</v>
+        <v>154.5118470191292</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>192.1364845758544</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>23.90188069175173</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,16 +10361,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>832.9621348837863</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10598,16 +10598,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>832.9621348837863</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10835,7 +10835,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>280.9431591680341</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639462</v>
+        <v>103.3290013791421</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.568313180543</v>
+        <v>103.3290013791421</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>268.0111327346229</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>185.1957776566189</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>10.96843159933445</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>185.1957776566216</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>96.5625395927548</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>177.9825081356736</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>44.28436272291239</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>122.4480280049926</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>143.6516710866789</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>34.67467827192534</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>90.22000922290086</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>216.2362286424006</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>90.22000922290063</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.6516710866779</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>74.15349933190427</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>143.6516710866838</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>135.079760440444</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>89.61600311981715</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
     </row>
     <row r="42">
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>69.71657238081411</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>267.5985112554912</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>49.73195639979855</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.9863699957339</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>201.649467091834</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>492885.8005223844</v>
+        <v>492885.8005223846</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>492885.8005223844</v>
+        <v>492885.8005223847</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>499840.8985245135</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339186</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339186</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506731.0465317895</v>
+        <v>492885.8005223844</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150664</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="E2" t="n">
         <v>391781.0209280492</v>
       </c>
       <c r="F2" t="n">
-        <v>391781.0209280491</v>
+        <v>391781.0209280494</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605106</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26347,10 +26347,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="O2" t="n">
-        <v>402786.2164739865</v>
+        <v>391781.0209280492</v>
       </c>
       <c r="P2" t="n">
         <v>391781.0209280492</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745944</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>161735.0752101145</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850749</v>
+        <v>18928.52796216466</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996318</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256748</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393359</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>135599.3120662814</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687735</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687733</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="G4" t="n">
-        <v>784.5995283440677</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
+        <v>806.3323907826032</v>
+      </c>
+      <c r="I4" t="n">
         <v>806.3323907826023</v>
       </c>
-      <c r="I4" t="n">
-        <v>806.3323907826021</v>
-      </c>
       <c r="J4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26448,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825461</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825265</v>
       </c>
       <c r="O4" t="n">
-        <v>795.4149836073077</v>
+        <v>773.6821211687035</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211686917</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696284</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024206</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319796</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44729.9908483745</v>
+        <v>20226.01338412939</v>
       </c>
       <c r="C6" t="n">
-        <v>186921.2915080844</v>
+        <v>196607.2071975986</v>
       </c>
       <c r="D6" t="n">
-        <v>186921.2915080845</v>
+        <v>227797.2421350584</v>
       </c>
       <c r="E6" t="n">
-        <v>83132.97450719558</v>
+        <v>155676.3627643216</v>
       </c>
       <c r="F6" t="n">
-        <v>317487.9965292328</v>
+        <v>317411.4379744362</v>
       </c>
       <c r="G6" t="n">
-        <v>315272.2767890738</v>
+        <v>310838.3044083256</v>
       </c>
       <c r="H6" t="n">
-        <v>317387.3017299097</v>
+        <v>329766.8323704903</v>
       </c>
       <c r="I6" t="n">
-        <v>329790.0567098729</v>
+        <v>329766.8323704902</v>
       </c>
       <c r="J6" t="n">
-        <v>218775.5913648827</v>
+        <v>180375.2359448154</v>
       </c>
       <c r="K6" t="n">
-        <v>329790.0567098728</v>
+        <v>304919.8955865566</v>
       </c>
       <c r="L6" t="n">
-        <v>329790.0567098728</v>
+        <v>329766.8323704902</v>
       </c>
       <c r="M6" t="n">
-        <v>134188.8774268053</v>
+        <v>194776.8877574868</v>
       </c>
       <c r="N6" t="n">
-        <v>329790.0567098729</v>
+        <v>329766.8323704902</v>
       </c>
       <c r="O6" t="n">
-        <v>325676.5654071812</v>
+        <v>317411.4379744361</v>
       </c>
       <c r="P6" t="n">
-        <v>317487.9965292329</v>
+        <v>317411.4379744361</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517855</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319973</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760607</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319973</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760607</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>363.1031501617811</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>90.82834761920219</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>11.63304186765569</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.9569188242347</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.3319306324443</v>
+        <v>326.6295051306851</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.7320334827693</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
-        <v>196.9558765199561</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>218.9403520447908</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.19148442104948e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.238049662788398e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-5.51208910165411e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1.541622607821801e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-1.426432704165788e-12</v>
       </c>
     </row>
     <row r="45">
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>395.9942432157014</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,31 +34772,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026784</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320414</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>152.0558298092334</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>226.0938963909734</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>239.5100572483141</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.00589917494217</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>103.3290013791393</v>
+        <v>154.5118470191292</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>192.1364845758544</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>23.90188069175173</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960964</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908485</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37081,16 +37081,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>832.9621348837863</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37233,7 +37233,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645591</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37318,16 +37318,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>832.9621348837863</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,13 +37476,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37555,7 +37555,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>280.9431591680341</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37719,7 +37719,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821484</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639462</v>
+        <v>103.3290013791421</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,13 +38020,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.568313180543</v>
+        <v>103.3290013791421</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.908332551295</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
